--- a/Statistics/ASSIGNMENT/assignment.xlsx
+++ b/Statistics/ASSIGNMENT/assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA_ANALAYTICS\data analytics assigment\statistics\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B464BB-3134-44A1-AED2-064D4B38DE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB66C0E3-1E94-43E8-B7E6-81B374710299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions on measure of central" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="242">
   <si>
     <t>Week</t>
   </si>
@@ -748,13 +748,115 @@
   </si>
   <si>
     <t>Ans :A positive covariance suggests that when the stock price of Company A tends to be higher than its average, the stock price of Company B also tends to be higher than its average, and vice versa.</t>
+  </si>
+  <si>
+    <r>
+      <t>Quartiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : help in understanding the spread and central tendency of salaries. For instance, Q1 (128.75), Q2 (252.5), and Q3 (376.25) show the income levels where 25%, 50%, and 75% of the employees fall, respectively.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Percentiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provide specific points in the distribution. For instance, the 10th percentile (74.7) indicates the salary below which 10% of employees fall, while the 90th percentile (450.5) shows the salary below which 90% of employees fall.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quartiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provide insights into the spread and central tendency of the weight distribution. For instance, Q1 (143.75), Q2 (267.5), and Q3 (391.25) depict the weight levels where 25%, 50%, and 75% of individuals fall, respectively.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Percentiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> give specific points in the distribution. For instance, the 15th percentile (81.8) indicates the weight below which 15% of individuals fall, while the 85th percentile (465.5) represents the weight below which 85% of individuals fall.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quartiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> offer insights into the spread and central tendency of the purchase amount distribution. For instance, Q1 (56.25), Q2 (292.5), and Q3 (428.75) depict the spending levels where 25%, 50%, and 75% of customers fall, respectively.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Percentiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> give specific points in the distribution. For instance, the 10th percentile (74.5) indicates the purchase amount below which 10% of customers fall, while the 90th percentile (510.5) represents the purchase amount below which 80% of customers fall.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +986,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1528,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1668,8 +1782,49 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1683,6 +1838,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1695,6 +1853,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1703,24 +1864,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1740,32 +1883,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1790,22 +1937,13 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1817,44 +1955,17 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5008,33 +5119,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="206"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5077,21 +5188,21 @@
       <c r="B7" s="10">
         <v>60</v>
       </c>
-      <c r="H7" s="124" t="s">
+      <c r="H7" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="126"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="155"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
@@ -5106,21 +5217,21 @@
       <c r="E8" s="4">
         <v>58.75</v>
       </c>
-      <c r="H8" s="124" t="s">
+      <c r="H8" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="126"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="155"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
@@ -5329,30 +5440,30 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
@@ -5694,22 +5805,22 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="123" t="s">
+      <c r="A55" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="123"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
+      <c r="F55" s="149"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" s="123"/>
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="149"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
@@ -6238,55 +6349,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="203"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
@@ -6598,24 +6709,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="133"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6958,22 +7069,22 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="133" t="s">
+      <c r="A70" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="133"/>
-      <c r="C70" s="133"/>
-      <c r="D70" s="133"/>
-      <c r="E70" s="133"/>
-      <c r="F70" s="133"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
+      <c r="E70" s="164"/>
+      <c r="F70" s="164"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="133"/>
-      <c r="B71" s="133"/>
-      <c r="C71" s="133"/>
-      <c r="D71" s="133"/>
-      <c r="E71" s="133"/>
-      <c r="F71" s="133"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
+      <c r="E71" s="164"/>
+      <c r="F71" s="164"/>
     </row>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7416,48 +7527,48 @@
       </c>
     </row>
     <row r="135" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="134" t="s">
+      <c r="A135" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="B135" s="134"/>
-      <c r="C135" s="134"/>
-      <c r="D135" s="134"/>
-      <c r="E135" s="134"/>
-      <c r="F135" s="134"/>
-      <c r="G135" s="134"/>
-      <c r="H135" s="134"/>
-      <c r="I135" s="134"/>
-      <c r="J135" s="134"/>
-      <c r="K135" s="134"/>
-      <c r="L135" s="134"/>
+      <c r="B135" s="165"/>
+      <c r="C135" s="165"/>
+      <c r="D135" s="165"/>
+      <c r="E135" s="165"/>
+      <c r="F135" s="165"/>
+      <c r="G135" s="165"/>
+      <c r="H135" s="165"/>
+      <c r="I135" s="165"/>
+      <c r="J135" s="165"/>
+      <c r="K135" s="165"/>
+      <c r="L135" s="165"/>
     </row>
     <row r="136" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="134"/>
-      <c r="B136" s="134"/>
-      <c r="C136" s="134"/>
-      <c r="D136" s="134"/>
-      <c r="E136" s="134"/>
-      <c r="F136" s="134"/>
-      <c r="G136" s="134"/>
-      <c r="H136" s="134"/>
-      <c r="I136" s="134"/>
-      <c r="J136" s="134"/>
-      <c r="K136" s="134"/>
-      <c r="L136" s="134"/>
+      <c r="A136" s="165"/>
+      <c r="B136" s="165"/>
+      <c r="C136" s="165"/>
+      <c r="D136" s="165"/>
+      <c r="E136" s="165"/>
+      <c r="F136" s="165"/>
+      <c r="G136" s="165"/>
+      <c r="H136" s="165"/>
+      <c r="I136" s="165"/>
+      <c r="J136" s="165"/>
+      <c r="K136" s="165"/>
+      <c r="L136" s="165"/>
     </row>
     <row r="137" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="134"/>
-      <c r="B137" s="134"/>
-      <c r="C137" s="134"/>
-      <c r="D137" s="134"/>
-      <c r="E137" s="134"/>
-      <c r="F137" s="134"/>
-      <c r="G137" s="134"/>
-      <c r="H137" s="134"/>
-      <c r="I137" s="134"/>
-      <c r="J137" s="134"/>
-      <c r="K137" s="134"/>
-      <c r="L137" s="134"/>
+      <c r="A137" s="165"/>
+      <c r="B137" s="165"/>
+      <c r="C137" s="165"/>
+      <c r="D137" s="165"/>
+      <c r="E137" s="165"/>
+      <c r="F137" s="165"/>
+      <c r="G137" s="165"/>
+      <c r="H137" s="165"/>
+      <c r="I137" s="165"/>
+      <c r="J137" s="165"/>
+      <c r="K137" s="165"/>
+      <c r="L137" s="165"/>
     </row>
     <row r="139" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="140" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7716,28 +7827,28 @@
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A161" s="128" t="s">
+      <c r="A161" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B161" s="128"/>
-      <c r="C161" s="128"/>
-      <c r="D161" s="128"/>
-      <c r="E161" s="128"/>
-      <c r="F161" s="128"/>
-      <c r="G161" s="128"/>
-      <c r="H161" s="128"/>
-      <c r="I161" s="128"/>
+      <c r="B161" s="158"/>
+      <c r="C161" s="158"/>
+      <c r="D161" s="158"/>
+      <c r="E161" s="158"/>
+      <c r="F161" s="158"/>
+      <c r="G161" s="158"/>
+      <c r="H161" s="158"/>
+      <c r="I161" s="158"/>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A162" s="128"/>
-      <c r="B162" s="128"/>
-      <c r="C162" s="128"/>
-      <c r="D162" s="128"/>
-      <c r="E162" s="128"/>
-      <c r="F162" s="128"/>
-      <c r="G162" s="128"/>
-      <c r="H162" s="128"/>
-      <c r="I162" s="128"/>
+      <c r="A162" s="158"/>
+      <c r="B162" s="158"/>
+      <c r="C162" s="158"/>
+      <c r="D162" s="158"/>
+      <c r="E162" s="158"/>
+      <c r="F162" s="158"/>
+      <c r="G162" s="158"/>
+      <c r="H162" s="158"/>
+      <c r="I162" s="158"/>
     </row>
     <row r="163" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="164" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8167,38 +8278,38 @@
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A219" s="129" t="s">
+      <c r="A219" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="B219" s="130"/>
-      <c r="C219" s="130"/>
-      <c r="D219" s="130"/>
-      <c r="E219" s="130"/>
-      <c r="F219" s="130"/>
-      <c r="G219" s="130"/>
-      <c r="H219" s="130"/>
-      <c r="I219" s="130"/>
-      <c r="J219" s="130"/>
-      <c r="K219" s="130"/>
-      <c r="L219" s="130"/>
-      <c r="M219" s="130"/>
-      <c r="N219" s="130"/>
+      <c r="B219" s="160"/>
+      <c r="C219" s="160"/>
+      <c r="D219" s="160"/>
+      <c r="E219" s="160"/>
+      <c r="F219" s="160"/>
+      <c r="G219" s="160"/>
+      <c r="H219" s="160"/>
+      <c r="I219" s="160"/>
+      <c r="J219" s="160"/>
+      <c r="K219" s="160"/>
+      <c r="L219" s="160"/>
+      <c r="M219" s="160"/>
+      <c r="N219" s="160"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A220" s="130"/>
-      <c r="B220" s="130"/>
-      <c r="C220" s="130"/>
-      <c r="D220" s="130"/>
-      <c r="E220" s="130"/>
-      <c r="F220" s="130"/>
-      <c r="G220" s="130"/>
-      <c r="H220" s="130"/>
-      <c r="I220" s="130"/>
-      <c r="J220" s="130"/>
-      <c r="K220" s="130"/>
-      <c r="L220" s="130"/>
-      <c r="M220" s="130"/>
-      <c r="N220" s="130"/>
+      <c r="A220" s="160"/>
+      <c r="B220" s="160"/>
+      <c r="C220" s="160"/>
+      <c r="D220" s="160"/>
+      <c r="E220" s="160"/>
+      <c r="F220" s="160"/>
+      <c r="G220" s="160"/>
+      <c r="H220" s="160"/>
+      <c r="I220" s="160"/>
+      <c r="J220" s="160"/>
+      <c r="K220" s="160"/>
+      <c r="L220" s="160"/>
+      <c r="M220" s="160"/>
+      <c r="N220" s="160"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="13" t="s">
@@ -8900,38 +9011,38 @@
       </c>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A331" s="131" t="s">
+      <c r="A331" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="B331" s="131"/>
-      <c r="C331" s="131"/>
-      <c r="D331" s="131"/>
-      <c r="E331" s="131"/>
-      <c r="F331" s="131"/>
-      <c r="G331" s="131"/>
-      <c r="H331" s="131"/>
-      <c r="I331" s="131"/>
-      <c r="J331" s="131"/>
-      <c r="K331" s="131"/>
-      <c r="L331" s="131"/>
-      <c r="M331" s="131"/>
-      <c r="N331" s="131"/>
+      <c r="B331" s="161"/>
+      <c r="C331" s="161"/>
+      <c r="D331" s="161"/>
+      <c r="E331" s="161"/>
+      <c r="F331" s="161"/>
+      <c r="G331" s="161"/>
+      <c r="H331" s="161"/>
+      <c r="I331" s="161"/>
+      <c r="J331" s="161"/>
+      <c r="K331" s="161"/>
+      <c r="L331" s="161"/>
+      <c r="M331" s="161"/>
+      <c r="N331" s="161"/>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A332" s="131"/>
-      <c r="B332" s="131"/>
-      <c r="C332" s="131"/>
-      <c r="D332" s="131"/>
-      <c r="E332" s="131"/>
-      <c r="F332" s="131"/>
-      <c r="G332" s="131"/>
-      <c r="H332" s="131"/>
-      <c r="I332" s="131"/>
-      <c r="J332" s="131"/>
-      <c r="K332" s="131"/>
-      <c r="L332" s="131"/>
-      <c r="M332" s="131"/>
-      <c r="N332" s="131"/>
+      <c r="A332" s="161"/>
+      <c r="B332" s="161"/>
+      <c r="C332" s="161"/>
+      <c r="D332" s="161"/>
+      <c r="E332" s="161"/>
+      <c r="F332" s="161"/>
+      <c r="G332" s="161"/>
+      <c r="H332" s="161"/>
+      <c r="I332" s="161"/>
+      <c r="J332" s="161"/>
+      <c r="K332" s="161"/>
+      <c r="L332" s="161"/>
+      <c r="M332" s="161"/>
+      <c r="N332" s="161"/>
     </row>
     <row r="335" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H335" s="46"/>
@@ -9226,26 +9337,26 @@
     </row>
     <row r="349" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="350" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A350" s="135" t="s">
+      <c r="A350" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B350" s="135"/>
-      <c r="D350" s="135" t="s">
+      <c r="B350" s="157"/>
+      <c r="D350" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="E350" s="135"/>
-      <c r="G350" s="135" t="s">
+      <c r="E350" s="157"/>
+      <c r="G350" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="H350" s="135"/>
-      <c r="K350" s="135" t="s">
+      <c r="H350" s="157"/>
+      <c r="K350" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="L350" s="135"/>
-      <c r="O350" s="135" t="s">
+      <c r="L350" s="157"/>
+      <c r="O350" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="P350" s="135"/>
+      <c r="P350" s="157"/>
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
@@ -9665,11 +9776,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="G350:H350"/>
-    <mergeCell ref="K350:L350"/>
-    <mergeCell ref="O350:P350"/>
     <mergeCell ref="A161:I162"/>
     <mergeCell ref="A219:N220"/>
     <mergeCell ref="A331:N332"/>
@@ -9678,6 +9784,11 @@
     <mergeCell ref="A29:G30"/>
     <mergeCell ref="A70:F71"/>
     <mergeCell ref="A135:L137"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="G350:H350"/>
+    <mergeCell ref="K350:L350"/>
+    <mergeCell ref="O350:P350"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9705,77 +9816,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10029,10 +10140,10 @@
       <c r="B21" s="20">
         <v>37</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="144"/>
+      <c r="E21" s="169"/>
       <c r="F21" s="99">
         <v>35</v>
       </c>
@@ -10677,40 +10788,40 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A116" s="145" t="s">
+      <c r="A116" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="B116" s="145"/>
-      <c r="C116" s="145"/>
-      <c r="D116" s="145"/>
-      <c r="E116" s="145"/>
-      <c r="F116" s="145"/>
-      <c r="G116" s="145"/>
-      <c r="H116" s="145"/>
-      <c r="I116" s="145"/>
-      <c r="J116" s="145"/>
-      <c r="K116" s="145"/>
-      <c r="L116" s="145"/>
-      <c r="M116" s="145"/>
-      <c r="N116" s="145"/>
-      <c r="O116" s="145"/>
+      <c r="B116" s="170"/>
+      <c r="C116" s="170"/>
+      <c r="D116" s="170"/>
+      <c r="E116" s="170"/>
+      <c r="F116" s="170"/>
+      <c r="G116" s="170"/>
+      <c r="H116" s="170"/>
+      <c r="I116" s="170"/>
+      <c r="J116" s="170"/>
+      <c r="K116" s="170"/>
+      <c r="L116" s="170"/>
+      <c r="M116" s="170"/>
+      <c r="N116" s="170"/>
+      <c r="O116" s="170"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117" s="145"/>
-      <c r="B117" s="145"/>
-      <c r="C117" s="145"/>
-      <c r="D117" s="145"/>
-      <c r="E117" s="145"/>
-      <c r="F117" s="145"/>
-      <c r="G117" s="145"/>
-      <c r="H117" s="145"/>
-      <c r="I117" s="145"/>
-      <c r="J117" s="145"/>
-      <c r="K117" s="145"/>
-      <c r="L117" s="145"/>
-      <c r="M117" s="145"/>
-      <c r="N117" s="145"/>
-      <c r="O117" s="145"/>
+      <c r="A117" s="170"/>
+      <c r="B117" s="170"/>
+      <c r="C117" s="170"/>
+      <c r="D117" s="170"/>
+      <c r="E117" s="170"/>
+      <c r="F117" s="170"/>
+      <c r="G117" s="170"/>
+      <c r="H117" s="170"/>
+      <c r="I117" s="170"/>
+      <c r="J117" s="170"/>
+      <c r="K117" s="170"/>
+      <c r="L117" s="170"/>
+      <c r="M117" s="170"/>
+      <c r="N117" s="170"/>
+      <c r="O117" s="170"/>
     </row>
     <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="121" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
@@ -11422,51 +11533,51 @@
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A175" s="146" t="s">
+      <c r="A175" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="B175" s="123"/>
-      <c r="C175" s="123"/>
-      <c r="D175" s="123"/>
-      <c r="E175" s="123"/>
-      <c r="F175" s="123"/>
-      <c r="G175" s="123"/>
-      <c r="H175" s="123"/>
-      <c r="I175" s="123"/>
-      <c r="J175" s="123"/>
-      <c r="K175" s="123"/>
-      <c r="L175" s="123"/>
-      <c r="M175" s="123"/>
+      <c r="B175" s="149"/>
+      <c r="C175" s="149"/>
+      <c r="D175" s="149"/>
+      <c r="E175" s="149"/>
+      <c r="F175" s="149"/>
+      <c r="G175" s="149"/>
+      <c r="H175" s="149"/>
+      <c r="I175" s="149"/>
+      <c r="J175" s="149"/>
+      <c r="K175" s="149"/>
+      <c r="L175" s="149"/>
+      <c r="M175" s="149"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A176" s="123"/>
-      <c r="B176" s="123"/>
-      <c r="C176" s="123"/>
-      <c r="D176" s="123"/>
-      <c r="E176" s="123"/>
-      <c r="F176" s="123"/>
-      <c r="G176" s="123"/>
-      <c r="H176" s="123"/>
-      <c r="I176" s="123"/>
-      <c r="J176" s="123"/>
-      <c r="K176" s="123"/>
-      <c r="L176" s="123"/>
-      <c r="M176" s="123"/>
+      <c r="A176" s="149"/>
+      <c r="B176" s="149"/>
+      <c r="C176" s="149"/>
+      <c r="D176" s="149"/>
+      <c r="E176" s="149"/>
+      <c r="F176" s="149"/>
+      <c r="G176" s="149"/>
+      <c r="H176" s="149"/>
+      <c r="I176" s="149"/>
+      <c r="J176" s="149"/>
+      <c r="K176" s="149"/>
+      <c r="L176" s="149"/>
+      <c r="M176" s="149"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A177" s="123"/>
-      <c r="B177" s="123"/>
-      <c r="C177" s="123"/>
-      <c r="D177" s="123"/>
-      <c r="E177" s="123"/>
-      <c r="F177" s="123"/>
-      <c r="G177" s="123"/>
-      <c r="H177" s="123"/>
-      <c r="I177" s="123"/>
-      <c r="J177" s="123"/>
-      <c r="K177" s="123"/>
-      <c r="L177" s="123"/>
-      <c r="M177" s="123"/>
+      <c r="A177" s="149"/>
+      <c r="B177" s="149"/>
+      <c r="C177" s="149"/>
+      <c r="D177" s="149"/>
+      <c r="E177" s="149"/>
+      <c r="F177" s="149"/>
+      <c r="G177" s="149"/>
+      <c r="H177" s="149"/>
+      <c r="I177" s="149"/>
+      <c r="J177" s="149"/>
+      <c r="K177" s="149"/>
+      <c r="L177" s="149"/>
+      <c r="M177" s="149"/>
     </row>
     <row r="180" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="47" t="s">
@@ -11697,48 +11808,48 @@
       <c r="R196" s="101"/>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A203" s="136" t="s">
+      <c r="A203" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="B203" s="136"/>
-      <c r="C203" s="136"/>
-      <c r="D203" s="136"/>
-      <c r="E203" s="136"/>
-      <c r="F203" s="136"/>
-      <c r="G203" s="136"/>
-      <c r="H203" s="136"/>
-      <c r="I203" s="136"/>
-      <c r="J203" s="136"/>
-      <c r="K203" s="136"/>
-      <c r="L203" s="136"/>
-      <c r="M203" s="136"/>
-      <c r="N203" s="136"/>
-      <c r="O203" s="136"/>
-      <c r="P203" s="136"/>
-      <c r="Q203" s="136"/>
-      <c r="R203" s="136"/>
-      <c r="S203" s="136"/>
+      <c r="B203" s="172"/>
+      <c r="C203" s="172"/>
+      <c r="D203" s="172"/>
+      <c r="E203" s="172"/>
+      <c r="F203" s="172"/>
+      <c r="G203" s="172"/>
+      <c r="H203" s="172"/>
+      <c r="I203" s="172"/>
+      <c r="J203" s="172"/>
+      <c r="K203" s="172"/>
+      <c r="L203" s="172"/>
+      <c r="M203" s="172"/>
+      <c r="N203" s="172"/>
+      <c r="O203" s="172"/>
+      <c r="P203" s="172"/>
+      <c r="Q203" s="172"/>
+      <c r="R203" s="172"/>
+      <c r="S203" s="172"/>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A204" s="136"/>
-      <c r="B204" s="136"/>
-      <c r="C204" s="136"/>
-      <c r="D204" s="136"/>
-      <c r="E204" s="136"/>
-      <c r="F204" s="136"/>
-      <c r="G204" s="136"/>
-      <c r="H204" s="136"/>
-      <c r="I204" s="136"/>
-      <c r="J204" s="136"/>
-      <c r="K204" s="136"/>
-      <c r="L204" s="136"/>
-      <c r="M204" s="136"/>
-      <c r="N204" s="136"/>
-      <c r="O204" s="136"/>
-      <c r="P204" s="136"/>
-      <c r="Q204" s="136"/>
-      <c r="R204" s="136"/>
-      <c r="S204" s="136"/>
+      <c r="A204" s="172"/>
+      <c r="B204" s="172"/>
+      <c r="C204" s="172"/>
+      <c r="D204" s="172"/>
+      <c r="E204" s="172"/>
+      <c r="F204" s="172"/>
+      <c r="G204" s="172"/>
+      <c r="H204" s="172"/>
+      <c r="I204" s="172"/>
+      <c r="J204" s="172"/>
+      <c r="K204" s="172"/>
+      <c r="L204" s="172"/>
+      <c r="M204" s="172"/>
+      <c r="N204" s="172"/>
+      <c r="O204" s="172"/>
+      <c r="P204" s="172"/>
+      <c r="Q204" s="172"/>
+      <c r="R204" s="172"/>
+      <c r="S204" s="172"/>
     </row>
     <row r="208" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="111" t="s">
@@ -12355,46 +12466,46 @@
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A316" s="137" t="s">
+      <c r="A316" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="B316" s="137"/>
-      <c r="C316" s="137"/>
-      <c r="D316" s="137"/>
-      <c r="E316" s="137"/>
-      <c r="F316" s="137"/>
-      <c r="G316" s="137"/>
-      <c r="H316" s="137"/>
-      <c r="I316" s="137"/>
-      <c r="J316" s="137"/>
-      <c r="K316" s="137"/>
-      <c r="L316" s="137"/>
-      <c r="M316" s="137"/>
-      <c r="N316" s="137"/>
-      <c r="O316" s="137"/>
-      <c r="P316" s="137"/>
-      <c r="Q316" s="137"/>
-      <c r="R316" s="137"/>
+      <c r="B316" s="173"/>
+      <c r="C316" s="173"/>
+      <c r="D316" s="173"/>
+      <c r="E316" s="173"/>
+      <c r="F316" s="173"/>
+      <c r="G316" s="173"/>
+      <c r="H316" s="173"/>
+      <c r="I316" s="173"/>
+      <c r="J316" s="173"/>
+      <c r="K316" s="173"/>
+      <c r="L316" s="173"/>
+      <c r="M316" s="173"/>
+      <c r="N316" s="173"/>
+      <c r="O316" s="173"/>
+      <c r="P316" s="173"/>
+      <c r="Q316" s="173"/>
+      <c r="R316" s="173"/>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A317" s="137"/>
-      <c r="B317" s="137"/>
-      <c r="C317" s="137"/>
-      <c r="D317" s="137"/>
-      <c r="E317" s="137"/>
-      <c r="F317" s="137"/>
-      <c r="G317" s="137"/>
-      <c r="H317" s="137"/>
-      <c r="I317" s="137"/>
-      <c r="J317" s="137"/>
-      <c r="K317" s="137"/>
-      <c r="L317" s="137"/>
-      <c r="M317" s="137"/>
-      <c r="N317" s="137"/>
-      <c r="O317" s="137"/>
-      <c r="P317" s="137"/>
-      <c r="Q317" s="137"/>
-      <c r="R317" s="137"/>
+      <c r="A317" s="173"/>
+      <c r="B317" s="173"/>
+      <c r="C317" s="173"/>
+      <c r="D317" s="173"/>
+      <c r="E317" s="173"/>
+      <c r="F317" s="173"/>
+      <c r="G317" s="173"/>
+      <c r="H317" s="173"/>
+      <c r="I317" s="173"/>
+      <c r="J317" s="173"/>
+      <c r="K317" s="173"/>
+      <c r="L317" s="173"/>
+      <c r="M317" s="173"/>
+      <c r="N317" s="173"/>
+      <c r="O317" s="173"/>
+      <c r="P317" s="173"/>
+      <c r="Q317" s="173"/>
+      <c r="R317" s="173"/>
     </row>
     <row r="319" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="320" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -12905,51 +13016,51 @@
       </c>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A375" s="131" t="s">
+      <c r="A375" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="B375" s="131"/>
-      <c r="C375" s="131"/>
-      <c r="D375" s="131"/>
-      <c r="E375" s="131"/>
-      <c r="F375" s="131"/>
-      <c r="G375" s="131"/>
-      <c r="H375" s="131"/>
-      <c r="I375" s="131"/>
-      <c r="J375" s="131"/>
-      <c r="K375" s="131"/>
-      <c r="L375" s="131"/>
-      <c r="M375" s="131"/>
-      <c r="N375" s="131"/>
-      <c r="O375" s="131"/>
-      <c r="P375" s="131"/>
-      <c r="Q375" s="131"/>
+      <c r="B375" s="161"/>
+      <c r="C375" s="161"/>
+      <c r="D375" s="161"/>
+      <c r="E375" s="161"/>
+      <c r="F375" s="161"/>
+      <c r="G375" s="161"/>
+      <c r="H375" s="161"/>
+      <c r="I375" s="161"/>
+      <c r="J375" s="161"/>
+      <c r="K375" s="161"/>
+      <c r="L375" s="161"/>
+      <c r="M375" s="161"/>
+      <c r="N375" s="161"/>
+      <c r="O375" s="161"/>
+      <c r="P375" s="161"/>
+      <c r="Q375" s="161"/>
     </row>
     <row r="376" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A376" s="131"/>
-      <c r="B376" s="131"/>
-      <c r="C376" s="131"/>
-      <c r="D376" s="131"/>
-      <c r="E376" s="131"/>
-      <c r="F376" s="131"/>
-      <c r="G376" s="131"/>
-      <c r="H376" s="131"/>
-      <c r="I376" s="131"/>
-      <c r="J376" s="131"/>
-      <c r="K376" s="131"/>
-      <c r="L376" s="131"/>
-      <c r="M376" s="131"/>
-      <c r="N376" s="131"/>
-      <c r="O376" s="131"/>
-      <c r="P376" s="131"/>
-      <c r="Q376" s="131"/>
+      <c r="A376" s="161"/>
+      <c r="B376" s="161"/>
+      <c r="C376" s="161"/>
+      <c r="D376" s="161"/>
+      <c r="E376" s="161"/>
+      <c r="F376" s="161"/>
+      <c r="G376" s="161"/>
+      <c r="H376" s="161"/>
+      <c r="I376" s="161"/>
+      <c r="J376" s="161"/>
+      <c r="K376" s="161"/>
+      <c r="L376" s="161"/>
+      <c r="M376" s="161"/>
+      <c r="N376" s="161"/>
+      <c r="O376" s="161"/>
+      <c r="P376" s="161"/>
+      <c r="Q376" s="161"/>
     </row>
     <row r="377" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="378" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="138" t="s">
+      <c r="A378" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="B378" s="140" t="s">
+      <c r="B378" s="176" t="s">
         <v>65</v>
       </c>
       <c r="D378" s="82" t="s">
@@ -12961,8 +13072,8 @@
       </c>
     </row>
     <row r="379" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="139"/>
-      <c r="B379" s="140"/>
+      <c r="A379" s="175"/>
+      <c r="B379" s="176"/>
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" s="77">
@@ -13651,46 +13762,46 @@
       </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A484" s="131" t="s">
+      <c r="A484" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="B484" s="131"/>
-      <c r="C484" s="131"/>
-      <c r="D484" s="131"/>
-      <c r="E484" s="131"/>
-      <c r="F484" s="131"/>
-      <c r="G484" s="131"/>
-      <c r="H484" s="131"/>
-      <c r="I484" s="131"/>
-      <c r="J484" s="131"/>
-      <c r="K484" s="131"/>
-      <c r="L484" s="131"/>
-      <c r="M484" s="131"/>
-      <c r="N484" s="131"/>
-      <c r="O484" s="131"/>
-      <c r="P484" s="131"/>
-      <c r="Q484" s="131"/>
-      <c r="R484" s="131"/>
+      <c r="B484" s="161"/>
+      <c r="C484" s="161"/>
+      <c r="D484" s="161"/>
+      <c r="E484" s="161"/>
+      <c r="F484" s="161"/>
+      <c r="G484" s="161"/>
+      <c r="H484" s="161"/>
+      <c r="I484" s="161"/>
+      <c r="J484" s="161"/>
+      <c r="K484" s="161"/>
+      <c r="L484" s="161"/>
+      <c r="M484" s="161"/>
+      <c r="N484" s="161"/>
+      <c r="O484" s="161"/>
+      <c r="P484" s="161"/>
+      <c r="Q484" s="161"/>
+      <c r="R484" s="161"/>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A485" s="131"/>
-      <c r="B485" s="131"/>
-      <c r="C485" s="131"/>
-      <c r="D485" s="131"/>
-      <c r="E485" s="131"/>
-      <c r="F485" s="131"/>
-      <c r="G485" s="131"/>
-      <c r="H485" s="131"/>
-      <c r="I485" s="131"/>
-      <c r="J485" s="131"/>
-      <c r="K485" s="131"/>
-      <c r="L485" s="131"/>
-      <c r="M485" s="131"/>
-      <c r="N485" s="131"/>
-      <c r="O485" s="131"/>
-      <c r="P485" s="131"/>
-      <c r="Q485" s="131"/>
-      <c r="R485" s="131"/>
+      <c r="A485" s="161"/>
+      <c r="B485" s="161"/>
+      <c r="C485" s="161"/>
+      <c r="D485" s="161"/>
+      <c r="E485" s="161"/>
+      <c r="F485" s="161"/>
+      <c r="G485" s="161"/>
+      <c r="H485" s="161"/>
+      <c r="I485" s="161"/>
+      <c r="J485" s="161"/>
+      <c r="K485" s="161"/>
+      <c r="L485" s="161"/>
+      <c r="M485" s="161"/>
+      <c r="N485" s="161"/>
+      <c r="O485" s="161"/>
+      <c r="P485" s="161"/>
+      <c r="Q485" s="161"/>
+      <c r="R485" s="161"/>
     </row>
     <row r="488" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="489" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -14376,17 +14487,17 @@
     <sortCondition ref="G122"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="A6:M7"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A116:O117"/>
-    <mergeCell ref="A175:M177"/>
     <mergeCell ref="A484:R485"/>
     <mergeCell ref="A203:S204"/>
     <mergeCell ref="A316:R317"/>
     <mergeCell ref="A375:Q376"/>
     <mergeCell ref="A378:A379"/>
     <mergeCell ref="B378:B379"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="A6:M7"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A116:O117"/>
+    <mergeCell ref="A175:M177"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14421,48 +14532,48 @@
       <c r="I3" s="113"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="177" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J10" s="110"/>
@@ -14661,7 +14772,7 @@
       <c r="E19">
         <v>2.3790857142857145</v>
       </c>
-      <c r="J19" s="148" t="s">
+      <c r="J19" s="123" t="s">
         <v>193</v>
       </c>
       <c r="K19" s="110"/>
@@ -14950,48 +15061,48 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="149" t="s">
+      <c r="A66" s="178" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="149"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="149"/>
-      <c r="G66" s="149"/>
-      <c r="H66" s="149"/>
-      <c r="I66" s="149"/>
-      <c r="J66" s="149"/>
-      <c r="K66" s="149"/>
-      <c r="L66" s="149"/>
-      <c r="M66" s="149"/>
-      <c r="N66" s="149"/>
-      <c r="O66" s="149"/>
-      <c r="P66" s="149"/>
-      <c r="Q66" s="149"/>
-      <c r="R66" s="149"/>
-      <c r="S66" s="149"/>
+      <c r="B66" s="178"/>
+      <c r="C66" s="178"/>
+      <c r="D66" s="178"/>
+      <c r="E66" s="178"/>
+      <c r="F66" s="178"/>
+      <c r="G66" s="178"/>
+      <c r="H66" s="178"/>
+      <c r="I66" s="178"/>
+      <c r="J66" s="178"/>
+      <c r="K66" s="178"/>
+      <c r="L66" s="178"/>
+      <c r="M66" s="178"/>
+      <c r="N66" s="178"/>
+      <c r="O66" s="178"/>
+      <c r="P66" s="178"/>
+      <c r="Q66" s="178"/>
+      <c r="R66" s="178"/>
+      <c r="S66" s="178"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="149"/>
-      <c r="B67" s="149"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="149"/>
-      <c r="H67" s="149"/>
-      <c r="I67" s="149"/>
-      <c r="J67" s="149"/>
-      <c r="K67" s="149"/>
-      <c r="L67" s="149"/>
-      <c r="M67" s="149"/>
-      <c r="N67" s="149"/>
-      <c r="O67" s="149"/>
-      <c r="P67" s="149"/>
-      <c r="Q67" s="149"/>
-      <c r="R67" s="149"/>
-      <c r="S67" s="149"/>
+      <c r="A67" s="178"/>
+      <c r="B67" s="178"/>
+      <c r="C67" s="178"/>
+      <c r="D67" s="178"/>
+      <c r="E67" s="178"/>
+      <c r="F67" s="178"/>
+      <c r="G67" s="178"/>
+      <c r="H67" s="178"/>
+      <c r="I67" s="178"/>
+      <c r="J67" s="178"/>
+      <c r="K67" s="178"/>
+      <c r="L67" s="178"/>
+      <c r="M67" s="178"/>
+      <c r="N67" s="178"/>
+      <c r="O67" s="178"/>
+      <c r="P67" s="178"/>
+      <c r="Q67" s="178"/>
+      <c r="R67" s="178"/>
+      <c r="S67" s="178"/>
     </row>
     <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I71" s="101"/>
@@ -15007,13 +15118,13 @@
       <c r="S71" s="101"/>
     </row>
     <row r="72" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="150" t="s">
+      <c r="A72" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="153" t="s">
+      <c r="D72" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="153"/>
+      <c r="E72" s="3"/>
       <c r="I72" s="101" t="s">
         <v>196</v>
       </c>
@@ -15032,8 +15143,6 @@
       <c r="A73" s="14">
         <v>2.5</v>
       </c>
-      <c r="D73" s="151"/>
-      <c r="E73" s="151"/>
       <c r="I73" s="101" t="s">
         <v>197</v>
       </c>
@@ -15052,10 +15161,10 @@
       <c r="A74" s="14">
         <v>4.8</v>
       </c>
-      <c r="D74" s="151" t="s">
+      <c r="D74" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="151">
+      <c r="E74">
         <v>3.379166666666666</v>
       </c>
       <c r="I74" s="101"/>
@@ -15074,10 +15183,10 @@
       <c r="A75" s="14">
         <v>3.2</v>
       </c>
-      <c r="D75" s="151" t="s">
+      <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="151">
+      <c r="E75">
         <v>8.0567023785401773E-2</v>
       </c>
       <c r="I75" s="101" t="s">
@@ -15098,10 +15207,10 @@
       <c r="A76" s="14">
         <v>2.1</v>
       </c>
-      <c r="D76" s="151" t="s">
+      <c r="D76" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="151">
+      <c r="E76">
         <v>3.3</v>
       </c>
       <c r="I76" s="101" t="s">
@@ -15122,10 +15231,10 @@
       <c r="A77" s="14">
         <v>4.5</v>
       </c>
-      <c r="D77" s="151" t="s">
+      <c r="D77" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="151">
+      <c r="E77">
         <v>3.3</v>
       </c>
       <c r="I77" s="101"/>
@@ -15144,10 +15253,10 @@
       <c r="A78" s="14">
         <v>2.9</v>
       </c>
-      <c r="D78" s="151" t="s">
+      <c r="D78" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="151">
+      <c r="E78">
         <v>0.78939239347563983</v>
       </c>
       <c r="I78" s="101" t="s">
@@ -15168,10 +15277,10 @@
       <c r="A79" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D79" s="151" t="s">
+      <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="151">
+      <c r="E79">
         <v>0.62314035087719943</v>
       </c>
       <c r="I79" s="101" t="s">
@@ -15192,13 +15301,13 @@
       <c r="A80" s="14">
         <v>3.1</v>
       </c>
-      <c r="D80" s="154" t="s">
+      <c r="D80" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="154">
+      <c r="E80" s="48">
         <v>-0.93120912452529181</v>
       </c>
-      <c r="I80" s="155" t="s">
+      <c r="I80" s="125" t="s">
         <v>201</v>
       </c>
       <c r="J80" s="101"/>
@@ -15216,10 +15325,10 @@
       <c r="A81" s="14">
         <v>4.2</v>
       </c>
-      <c r="D81" s="154" t="s">
+      <c r="D81" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="154">
+      <c r="E81" s="48">
         <v>0.22402536454542335</v>
       </c>
       <c r="I81" s="101"/>
@@ -15238,10 +15347,10 @@
       <c r="A82" s="14">
         <v>3.9</v>
       </c>
-      <c r="D82" s="151" t="s">
+      <c r="D82" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="151">
+      <c r="E82">
         <v>2.9000000000000004</v>
       </c>
     </row>
@@ -15249,10 +15358,10 @@
       <c r="A83" s="14">
         <v>2.8</v>
       </c>
-      <c r="D83" s="151" t="s">
+      <c r="D83" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="151">
+      <c r="E83">
         <v>2</v>
       </c>
     </row>
@@ -15260,10 +15369,10 @@
       <c r="A84" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D84" s="151" t="s">
+      <c r="D84" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="151">
+      <c r="E84">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -15271,10 +15380,10 @@
       <c r="A85" s="14">
         <v>2.6</v>
       </c>
-      <c r="D85" s="151" t="s">
+      <c r="D85" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="151">
+      <c r="E85">
         <v>324.39999999999992</v>
       </c>
     </row>
@@ -15282,10 +15391,10 @@
       <c r="A86" s="14">
         <v>2.4</v>
       </c>
-      <c r="D86" s="152" t="s">
+      <c r="D86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="152">
+      <c r="E86" s="2">
         <v>96</v>
       </c>
     </row>
@@ -15700,58 +15809,58 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A172" s="136" t="s">
+      <c r="A172" s="172" t="s">
         <v>202</v>
       </c>
-      <c r="B172" s="136"/>
-      <c r="C172" s="136"/>
-      <c r="D172" s="136"/>
-      <c r="E172" s="136"/>
-      <c r="F172" s="136"/>
-      <c r="G172" s="136"/>
-      <c r="H172" s="136"/>
-      <c r="I172" s="136"/>
-      <c r="J172" s="136"/>
-      <c r="K172" s="136"/>
-      <c r="L172" s="136"/>
-      <c r="M172" s="136"/>
-      <c r="N172" s="136"/>
-      <c r="O172" s="136"/>
-      <c r="P172" s="136"/>
-      <c r="Q172" s="136"/>
-      <c r="R172" s="136"/>
-      <c r="S172" s="136"/>
+      <c r="B172" s="172"/>
+      <c r="C172" s="172"/>
+      <c r="D172" s="172"/>
+      <c r="E172" s="172"/>
+      <c r="F172" s="172"/>
+      <c r="G172" s="172"/>
+      <c r="H172" s="172"/>
+      <c r="I172" s="172"/>
+      <c r="J172" s="172"/>
+      <c r="K172" s="172"/>
+      <c r="L172" s="172"/>
+      <c r="M172" s="172"/>
+      <c r="N172" s="172"/>
+      <c r="O172" s="172"/>
+      <c r="P172" s="172"/>
+      <c r="Q172" s="172"/>
+      <c r="R172" s="172"/>
+      <c r="S172" s="172"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A173" s="136"/>
-      <c r="B173" s="136"/>
-      <c r="C173" s="136"/>
-      <c r="D173" s="136"/>
-      <c r="E173" s="136"/>
-      <c r="F173" s="136"/>
-      <c r="G173" s="136"/>
-      <c r="H173" s="136"/>
-      <c r="I173" s="136"/>
-      <c r="J173" s="136"/>
-      <c r="K173" s="136"/>
-      <c r="L173" s="136"/>
-      <c r="M173" s="136"/>
-      <c r="N173" s="136"/>
-      <c r="O173" s="136"/>
-      <c r="P173" s="136"/>
-      <c r="Q173" s="136"/>
-      <c r="R173" s="136"/>
-      <c r="S173" s="136"/>
+      <c r="A173" s="172"/>
+      <c r="B173" s="172"/>
+      <c r="C173" s="172"/>
+      <c r="D173" s="172"/>
+      <c r="E173" s="172"/>
+      <c r="F173" s="172"/>
+      <c r="G173" s="172"/>
+      <c r="H173" s="172"/>
+      <c r="I173" s="172"/>
+      <c r="J173" s="172"/>
+      <c r="K173" s="172"/>
+      <c r="L173" s="172"/>
+      <c r="M173" s="172"/>
+      <c r="N173" s="172"/>
+      <c r="O173" s="172"/>
+      <c r="P173" s="172"/>
+      <c r="Q173" s="172"/>
+      <c r="R173" s="172"/>
+      <c r="S173" s="172"/>
     </row>
     <row r="176" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="177" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A177" s="157" t="s">
+      <c r="A177" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="D177" s="153" t="s">
+      <c r="D177" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E177" s="153"/>
+      <c r="E177" s="3"/>
       <c r="H177" s="110"/>
       <c r="I177" s="110"/>
       <c r="J177" s="110"/>
@@ -15770,8 +15879,6 @@
       <c r="A178" s="14">
         <v>4</v>
       </c>
-      <c r="D178" s="151"/>
-      <c r="E178" s="151"/>
       <c r="H178" s="110" t="s">
         <v>203</v>
       </c>
@@ -15792,10 +15899,10 @@
       <c r="A179" s="14">
         <v>5</v>
       </c>
-      <c r="D179" s="151" t="s">
+      <c r="D179" t="s">
         <v>2</v>
       </c>
-      <c r="E179" s="151">
+      <c r="E179">
         <v>3.77</v>
       </c>
       <c r="H179" s="110" t="s">
@@ -15818,10 +15925,10 @@
       <c r="A180" s="14">
         <v>3</v>
       </c>
-      <c r="D180" s="151" t="s">
+      <c r="D180" t="s">
         <v>6</v>
       </c>
-      <c r="E180" s="151">
+      <c r="E180">
         <v>8.9730235436641728E-2</v>
       </c>
       <c r="H180" s="110"/>
@@ -15842,10 +15949,10 @@
       <c r="A181" s="14">
         <v>4</v>
       </c>
-      <c r="D181" s="151" t="s">
+      <c r="D181" t="s">
         <v>3</v>
       </c>
-      <c r="E181" s="151">
+      <c r="E181">
         <v>4</v>
       </c>
       <c r="H181" s="110" t="s">
@@ -15868,10 +15975,10 @@
       <c r="A182" s="14">
         <v>4</v>
       </c>
-      <c r="D182" s="151" t="s">
+      <c r="D182" t="s">
         <v>4</v>
       </c>
-      <c r="E182" s="151">
+      <c r="E182">
         <v>4</v>
       </c>
       <c r="H182" s="110" t="s">
@@ -15894,10 +16001,10 @@
       <c r="A183" s="14">
         <v>3</v>
       </c>
-      <c r="D183" s="151" t="s">
+      <c r="D183" t="s">
         <v>7</v>
       </c>
-      <c r="E183" s="151">
+      <c r="E183">
         <v>0.89730235436641725</v>
       </c>
       <c r="H183" s="110"/>
@@ -15918,10 +16025,10 @@
       <c r="A184" s="14">
         <v>2</v>
       </c>
-      <c r="D184" s="151" t="s">
+      <c r="D184" t="s">
         <v>8</v>
       </c>
-      <c r="E184" s="151">
+      <c r="E184">
         <v>0.80515151515151551</v>
       </c>
       <c r="H184" s="110" t="s">
@@ -15944,10 +16051,10 @@
       <c r="A185" s="14">
         <v>5</v>
       </c>
-      <c r="D185" s="158" t="s">
+      <c r="D185" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E185" s="158">
+      <c r="E185" s="4">
         <v>-0.74525627211662515</v>
       </c>
       <c r="H185" s="110" t="s">
@@ -15970,10 +16077,10 @@
       <c r="A186" s="14">
         <v>4</v>
       </c>
-      <c r="D186" s="158" t="s">
+      <c r="D186" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E186" s="158">
+      <c r="E186" s="4">
         <v>-0.21090973977304461</v>
       </c>
       <c r="H186" s="110" t="s">
@@ -15996,10 +16103,10 @@
       <c r="A187" s="14">
         <v>3</v>
       </c>
-      <c r="D187" s="151" t="s">
+      <c r="D187" t="s">
         <v>11</v>
       </c>
-      <c r="E187" s="151">
+      <c r="E187">
         <v>3</v>
       </c>
       <c r="H187" s="110"/>
@@ -16020,10 +16127,10 @@
       <c r="A188" s="14">
         <v>5</v>
       </c>
-      <c r="D188" s="151" t="s">
+      <c r="D188" t="s">
         <v>12</v>
       </c>
-      <c r="E188" s="151">
+      <c r="E188">
         <v>2</v>
       </c>
     </row>
@@ -16031,10 +16138,10 @@
       <c r="A189" s="14">
         <v>4</v>
       </c>
-      <c r="D189" s="151" t="s">
+      <c r="D189" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="151">
+      <c r="E189">
         <v>5</v>
       </c>
     </row>
@@ -16042,10 +16149,10 @@
       <c r="A190" s="14">
         <v>2</v>
       </c>
-      <c r="D190" s="151" t="s">
+      <c r="D190" t="s">
         <v>14</v>
       </c>
-      <c r="E190" s="151">
+      <c r="E190">
         <v>377</v>
       </c>
     </row>
@@ -16053,10 +16160,10 @@
       <c r="A191" s="14">
         <v>3</v>
       </c>
-      <c r="D191" s="152" t="s">
+      <c r="D191" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E191" s="152">
+      <c r="E191" s="2">
         <v>100</v>
       </c>
     </row>
@@ -16504,8 +16611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB660B1E-B818-40FE-BFD5-365DAB562CA1}">
   <dimension ref="A2:S340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="P233" sqref="P233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16515,92 +16622,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="190" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="190"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="128" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="H10" s="169" t="s">
+      <c r="E10" s="183"/>
+      <c r="H10" s="186" t="s">
         <v>221</v>
       </c>
-      <c r="I10" s="170"/>
+      <c r="I10" s="187"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="167"/>
-      <c r="E11" s="168"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="189"/>
     </row>
     <row r="12" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="129" t="s">
         <v>212</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="164">
+      <c r="E12" s="132">
         <f>QUARTILE(A13:A112,1)</f>
         <v>128.75</v>
       </c>
-      <c r="H12" s="175" t="s">
+      <c r="H12" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="I12" s="176">
+      <c r="I12" s="136">
         <f>PERCENTILE(A13:A112,0.1)</f>
         <v>74.7</v>
       </c>
@@ -16609,10 +16716,10 @@
       <c r="A13" s="54">
         <v>40</v>
       </c>
-      <c r="D13" s="162"/>
-      <c r="E13" s="163"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="174"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
@@ -16621,14 +16728,14 @@
       <c r="D14" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="164">
+      <c r="E14" s="132">
         <f>QUARTILE(A13:A112,2)</f>
         <v>252.5</v>
       </c>
-      <c r="H14" s="175" t="s">
+      <c r="H14" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="176">
+      <c r="I14" s="136">
         <f>PERCENTILE(A13:A112,0.25)</f>
         <v>128.75</v>
       </c>
@@ -16637,10 +16744,10 @@
       <c r="A15" s="54">
         <v>50</v>
       </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="163"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="174"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
@@ -16653,179 +16760,326 @@
         <f>QUARTILE(A13:A112,3)</f>
         <v>376.25</v>
       </c>
-      <c r="H16" s="175" t="s">
+      <c r="H16" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="I16" s="176">
+      <c r="I16" s="136">
         <f>PERCENTILE(A13:A112,0.75)</f>
         <v>376.25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="54">
         <v>60</v>
       </c>
-      <c r="H17" s="173"/>
-      <c r="I17" s="174"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
         <v>62</v>
       </c>
-      <c r="H18" s="177" t="s">
+      <c r="H18" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="I18" s="178">
+      <c r="I18" s="138">
         <f>PERCENTILE(A13:A112,0.9)</f>
         <v>450.50000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="54">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="54">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="54">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="54">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="54">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="197" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="197"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="54">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="197"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="54">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="197"/>
+      <c r="M27" s="197"/>
+      <c r="N27" s="197"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="54">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="54">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="197" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="197"/>
+      <c r="L30" s="197"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="197"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="54">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="197"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="54">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="197"/>
+      <c r="M32" s="197"/>
+      <c r="N32" s="197"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="54">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="N33" s="197"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="54">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="54">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="54">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="54">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="54">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="54">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="54">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="54">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="54">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="54">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="54">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="54">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="54">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="54">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="54">
         <v>180</v>
       </c>
@@ -17151,67 +17405,67 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A116" s="179" t="s">
+      <c r="A116" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="179"/>
-      <c r="C116" s="179"/>
-      <c r="D116" s="179"/>
-      <c r="E116" s="179"/>
-      <c r="F116" s="179"/>
-      <c r="G116" s="179"/>
-      <c r="H116" s="179"/>
-      <c r="I116" s="179"/>
-      <c r="J116" s="179"/>
-      <c r="K116" s="179"/>
-      <c r="L116" s="179"/>
-      <c r="M116" s="179"/>
-      <c r="N116" s="179"/>
-      <c r="O116" s="179"/>
-      <c r="P116" s="179"/>
-      <c r="Q116" s="179"/>
+      <c r="B116" s="191"/>
+      <c r="C116" s="191"/>
+      <c r="D116" s="191"/>
+      <c r="E116" s="191"/>
+      <c r="F116" s="191"/>
+      <c r="G116" s="191"/>
+      <c r="H116" s="191"/>
+      <c r="I116" s="191"/>
+      <c r="J116" s="191"/>
+      <c r="K116" s="191"/>
+      <c r="L116" s="191"/>
+      <c r="M116" s="191"/>
+      <c r="N116" s="191"/>
+      <c r="O116" s="191"/>
+      <c r="P116" s="191"/>
+      <c r="Q116" s="191"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117" s="179"/>
-      <c r="B117" s="179"/>
-      <c r="C117" s="179"/>
-      <c r="D117" s="179"/>
-      <c r="E117" s="179"/>
-      <c r="F117" s="179"/>
-      <c r="G117" s="179"/>
-      <c r="H117" s="179"/>
-      <c r="I117" s="179"/>
-      <c r="J117" s="179"/>
-      <c r="K117" s="179"/>
-      <c r="L117" s="179"/>
-      <c r="M117" s="179"/>
-      <c r="N117" s="179"/>
-      <c r="O117" s="179"/>
-      <c r="P117" s="179"/>
-      <c r="Q117" s="179"/>
+      <c r="A117" s="191"/>
+      <c r="B117" s="191"/>
+      <c r="C117" s="191"/>
+      <c r="D117" s="191"/>
+      <c r="E117" s="191"/>
+      <c r="F117" s="191"/>
+      <c r="G117" s="191"/>
+      <c r="H117" s="191"/>
+      <c r="I117" s="191"/>
+      <c r="J117" s="191"/>
+      <c r="K117" s="191"/>
+      <c r="L117" s="191"/>
+      <c r="M117" s="191"/>
+      <c r="N117" s="191"/>
+      <c r="O117" s="191"/>
+      <c r="P117" s="191"/>
+      <c r="Q117" s="191"/>
     </row>
     <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="121" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A121" s="156" t="s">
+      <c r="A121" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="D121" s="165" t="s">
+      <c r="D121" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="E121" s="166"/>
-      <c r="H121" s="169" t="s">
+      <c r="E121" s="183"/>
+      <c r="H121" s="186" t="s">
         <v>221</v>
       </c>
-      <c r="I121" s="170"/>
+      <c r="I121" s="187"/>
     </row>
     <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="14">
         <v>55</v>
       </c>
-      <c r="D122" s="167"/>
-      <c r="E122" s="168"/>
-      <c r="H122" s="171"/>
-      <c r="I122" s="172"/>
+      <c r="D122" s="184"/>
+      <c r="E122" s="185"/>
+      <c r="H122" s="188"/>
+      <c r="I122" s="189"/>
     </row>
     <row r="123" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="14">
@@ -17220,14 +17474,14 @@
       <c r="D123" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="E123" s="164">
+      <c r="E123" s="132">
         <f>QUARTILE(A122:A221,1)</f>
         <v>143.75</v>
       </c>
-      <c r="H123" s="175" t="s">
+      <c r="H123" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="I123" s="176">
+      <c r="I123" s="136">
         <f>PERCENTILE(A122:A221,0.1)</f>
         <v>81.8</v>
       </c>
@@ -17236,10 +17490,10 @@
       <c r="A124" s="14">
         <v>62</v>
       </c>
-      <c r="D124" s="162"/>
-      <c r="E124" s="163"/>
-      <c r="H124" s="173"/>
-      <c r="I124" s="174"/>
+      <c r="D124" s="130"/>
+      <c r="E124" s="131"/>
+      <c r="H124" s="133"/>
+      <c r="I124" s="134"/>
     </row>
     <row r="125" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="14">
@@ -17248,14 +17502,14 @@
       <c r="D125" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="E125" s="164">
+      <c r="E125" s="132">
         <f>QUARTILE(A122:A221,2)</f>
         <v>267.5</v>
       </c>
-      <c r="H125" s="175" t="s">
+      <c r="H125" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="I125" s="176">
+      <c r="I125" s="136">
         <f>PERCENTILE(A122:A221,0.25)</f>
         <v>143.75</v>
       </c>
@@ -17264,10 +17518,10 @@
       <c r="A126" s="14">
         <v>68</v>
       </c>
-      <c r="D126" s="162"/>
-      <c r="E126" s="163"/>
-      <c r="H126" s="173"/>
-      <c r="I126" s="174"/>
+      <c r="D126" s="130"/>
+      <c r="E126" s="131"/>
+      <c r="H126" s="133"/>
+      <c r="I126" s="134"/>
     </row>
     <row r="127" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="14">
@@ -17280,10 +17534,10 @@
         <f>QUARTILE(A122:A221,3)</f>
         <v>391.25</v>
       </c>
-      <c r="H127" s="175" t="s">
+      <c r="H127" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="I127" s="176">
+      <c r="I127" s="136">
         <f>PERCENTILE(A122:A221,0.75)</f>
         <v>391.25</v>
       </c>
@@ -17292,92 +17546,206 @@
       <c r="A128" s="14">
         <v>72</v>
       </c>
-      <c r="H128" s="173"/>
-      <c r="I128" s="174"/>
-    </row>
-    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H128" s="133"/>
+      <c r="I128" s="134"/>
+    </row>
+    <row r="129" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="14">
         <v>75</v>
       </c>
-      <c r="H129" s="177" t="s">
+      <c r="H129" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="I129" s="178">
+      <c r="I129" s="138">
         <f>PERCENTILE(A122:A221,0.9)</f>
         <v>465.50000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>85</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D133" s="101"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="101"/>
+      <c r="H133" s="101"/>
+      <c r="I133" s="101"/>
+      <c r="J133" s="101"/>
+      <c r="K133" s="101"/>
+      <c r="L133" s="101"/>
+      <c r="M133" s="101"/>
+      <c r="N133" s="101"/>
+    </row>
+    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>88</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D134" s="198" t="s">
+        <v>238</v>
+      </c>
+      <c r="E134" s="198"/>
+      <c r="F134" s="198"/>
+      <c r="G134" s="198"/>
+      <c r="H134" s="198"/>
+      <c r="I134" s="198"/>
+      <c r="J134" s="198"/>
+      <c r="K134" s="198"/>
+      <c r="L134" s="198"/>
+      <c r="M134" s="198"/>
+      <c r="N134" s="198"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>90</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D135" s="198"/>
+      <c r="E135" s="198"/>
+      <c r="F135" s="198"/>
+      <c r="G135" s="198"/>
+      <c r="H135" s="198"/>
+      <c r="I135" s="198"/>
+      <c r="J135" s="198"/>
+      <c r="K135" s="198"/>
+      <c r="L135" s="198"/>
+      <c r="M135" s="198"/>
+      <c r="N135" s="198"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>92</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D136" s="198"/>
+      <c r="E136" s="198"/>
+      <c r="F136" s="198"/>
+      <c r="G136" s="198"/>
+      <c r="H136" s="198"/>
+      <c r="I136" s="198"/>
+      <c r="J136" s="198"/>
+      <c r="K136" s="198"/>
+      <c r="L136" s="198"/>
+      <c r="M136" s="198"/>
+      <c r="N136" s="198"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>95</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D137" s="198"/>
+      <c r="E137" s="198"/>
+      <c r="F137" s="198"/>
+      <c r="G137" s="198"/>
+      <c r="H137" s="198"/>
+      <c r="I137" s="198"/>
+      <c r="J137" s="198"/>
+      <c r="K137" s="198"/>
+      <c r="L137" s="198"/>
+      <c r="M137" s="198"/>
+      <c r="N137" s="198"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>100</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D138" s="101"/>
+      <c r="E138" s="101"/>
+      <c r="F138" s="101"/>
+      <c r="G138" s="101"/>
+      <c r="H138" s="101"/>
+      <c r="I138" s="101"/>
+      <c r="J138" s="101"/>
+      <c r="K138" s="101"/>
+      <c r="L138" s="101"/>
+      <c r="M138" s="101"/>
+      <c r="N138" s="101"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>105</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D139" s="199" t="s">
+        <v>239</v>
+      </c>
+      <c r="E139" s="199"/>
+      <c r="F139" s="199"/>
+      <c r="G139" s="199"/>
+      <c r="H139" s="199"/>
+      <c r="I139" s="199"/>
+      <c r="J139" s="199"/>
+      <c r="K139" s="199"/>
+      <c r="L139" s="199"/>
+      <c r="M139" s="199"/>
+      <c r="N139" s="199"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>110</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D140" s="199"/>
+      <c r="E140" s="199"/>
+      <c r="F140" s="199"/>
+      <c r="G140" s="199"/>
+      <c r="H140" s="199"/>
+      <c r="I140" s="199"/>
+      <c r="J140" s="199"/>
+      <c r="K140" s="199"/>
+      <c r="L140" s="199"/>
+      <c r="M140" s="199"/>
+      <c r="N140" s="199"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>115</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D141" s="199"/>
+      <c r="E141" s="199"/>
+      <c r="F141" s="199"/>
+      <c r="G141" s="199"/>
+      <c r="H141" s="199"/>
+      <c r="I141" s="199"/>
+      <c r="J141" s="199"/>
+      <c r="K141" s="199"/>
+      <c r="L141" s="199"/>
+      <c r="M141" s="199"/>
+      <c r="N141" s="199"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>120</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D142" s="199"/>
+      <c r="E142" s="199"/>
+      <c r="F142" s="199"/>
+      <c r="G142" s="199"/>
+      <c r="H142" s="199"/>
+      <c r="I142" s="199"/>
+      <c r="J142" s="199"/>
+      <c r="K142" s="199"/>
+      <c r="L142" s="199"/>
+      <c r="M142" s="199"/>
+      <c r="N142" s="199"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>130</v>
       </c>
@@ -17768,74 +18136,74 @@
       </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A226" s="180" t="s">
+      <c r="A226" s="179" t="s">
         <v>224</v>
       </c>
-      <c r="B226" s="180"/>
-      <c r="C226" s="180"/>
-      <c r="D226" s="180"/>
-      <c r="E226" s="180"/>
-      <c r="F226" s="180"/>
-      <c r="G226" s="180"/>
-      <c r="H226" s="180"/>
-      <c r="I226" s="180"/>
-      <c r="J226" s="180"/>
-      <c r="K226" s="180"/>
-      <c r="L226" s="180"/>
-      <c r="M226" s="180"/>
-      <c r="N226" s="180"/>
-      <c r="O226" s="180"/>
-      <c r="P226" s="180"/>
-      <c r="Q226" s="180"/>
-      <c r="R226" s="180"/>
-      <c r="S226" s="180"/>
+      <c r="B226" s="179"/>
+      <c r="C226" s="179"/>
+      <c r="D226" s="179"/>
+      <c r="E226" s="179"/>
+      <c r="F226" s="179"/>
+      <c r="G226" s="179"/>
+      <c r="H226" s="179"/>
+      <c r="I226" s="179"/>
+      <c r="J226" s="179"/>
+      <c r="K226" s="179"/>
+      <c r="L226" s="179"/>
+      <c r="M226" s="179"/>
+      <c r="N226" s="179"/>
+      <c r="O226" s="179"/>
+      <c r="P226" s="179"/>
+      <c r="Q226" s="179"/>
+      <c r="R226" s="179"/>
+      <c r="S226" s="179"/>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A227" s="180"/>
-      <c r="B227" s="180"/>
-      <c r="C227" s="180"/>
-      <c r="D227" s="180"/>
-      <c r="E227" s="180"/>
-      <c r="F227" s="180"/>
-      <c r="G227" s="180"/>
-      <c r="H227" s="180"/>
-      <c r="I227" s="180"/>
-      <c r="J227" s="180"/>
-      <c r="K227" s="180"/>
-      <c r="L227" s="180"/>
-      <c r="M227" s="180"/>
-      <c r="N227" s="180"/>
-      <c r="O227" s="180"/>
-      <c r="P227" s="180"/>
-      <c r="Q227" s="180"/>
-      <c r="R227" s="180"/>
-      <c r="S227" s="180"/>
+      <c r="A227" s="179"/>
+      <c r="B227" s="179"/>
+      <c r="C227" s="179"/>
+      <c r="D227" s="179"/>
+      <c r="E227" s="179"/>
+      <c r="F227" s="179"/>
+      <c r="G227" s="179"/>
+      <c r="H227" s="179"/>
+      <c r="I227" s="179"/>
+      <c r="J227" s="179"/>
+      <c r="K227" s="179"/>
+      <c r="L227" s="179"/>
+      <c r="M227" s="179"/>
+      <c r="N227" s="179"/>
+      <c r="O227" s="179"/>
+      <c r="P227" s="179"/>
+      <c r="Q227" s="179"/>
+      <c r="R227" s="179"/>
+      <c r="S227" s="179"/>
     </row>
     <row r="228" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="229" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="181" t="s">
+      <c r="A229" s="180" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A230" s="182"/>
-      <c r="D230" s="165" t="s">
+      <c r="A230" s="181"/>
+      <c r="D230" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="E230" s="166"/>
-      <c r="H230" s="169" t="s">
+      <c r="E230" s="183"/>
+      <c r="H230" s="186" t="s">
         <v>221</v>
       </c>
-      <c r="I230" s="170"/>
+      <c r="I230" s="187"/>
     </row>
     <row r="231" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="54">
         <v>20</v>
       </c>
-      <c r="D231" s="167"/>
-      <c r="E231" s="168"/>
-      <c r="H231" s="171"/>
-      <c r="I231" s="172"/>
+      <c r="D231" s="184"/>
+      <c r="E231" s="185"/>
+      <c r="H231" s="188"/>
+      <c r="I231" s="189"/>
     </row>
     <row r="232" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="54">
@@ -17844,14 +18212,14 @@
       <c r="D232" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="E232" s="164">
+      <c r="E232" s="132">
         <f>QUARTILE(A231:A340,1)</f>
         <v>156.25</v>
       </c>
-      <c r="H232" s="175" t="s">
+      <c r="H232" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="I232" s="176">
+      <c r="I232" s="136">
         <f>PERCENTILE(A231:A340,0.1)</f>
         <v>74.5</v>
       </c>
@@ -17860,10 +18228,10 @@
       <c r="A233" s="54">
         <v>30</v>
       </c>
-      <c r="D233" s="162"/>
-      <c r="E233" s="163"/>
-      <c r="H233" s="173"/>
-      <c r="I233" s="174"/>
+      <c r="D233" s="130"/>
+      <c r="E233" s="131"/>
+      <c r="H233" s="133"/>
+      <c r="I233" s="134"/>
     </row>
     <row r="234" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="54">
@@ -17872,14 +18240,14 @@
       <c r="D234" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="E234" s="164">
+      <c r="E234" s="132">
         <f>QUARTILE(A231:A340,2)</f>
         <v>292.5</v>
       </c>
-      <c r="H234" s="175" t="s">
+      <c r="H234" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="I234" s="176">
+      <c r="I234" s="136">
         <f>PERCENTILE(A231:A340,0.25)</f>
         <v>156.25</v>
       </c>
@@ -17888,10 +18256,10 @@
       <c r="A235" s="54">
         <v>40</v>
       </c>
-      <c r="D235" s="162"/>
-      <c r="E235" s="163"/>
-      <c r="H235" s="173"/>
-      <c r="I235" s="174"/>
+      <c r="D235" s="130"/>
+      <c r="E235" s="131"/>
+      <c r="H235" s="133"/>
+      <c r="I235" s="134"/>
     </row>
     <row r="236" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="54">
@@ -17904,10 +18272,10 @@
         <f>QUARTILE(A231:A340,3)</f>
         <v>428.75</v>
       </c>
-      <c r="H236" s="175" t="s">
+      <c r="H236" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="I236" s="176">
+      <c r="I236" s="136">
         <f>PERCENTILE(A231:A340,0.75)</f>
         <v>428.75</v>
       </c>
@@ -17916,17 +18284,17 @@
       <c r="A237" s="54">
         <v>50</v>
       </c>
-      <c r="H237" s="173"/>
-      <c r="I237" s="174"/>
+      <c r="H237" s="133"/>
+      <c r="I237" s="134"/>
     </row>
     <row r="238" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="54">
         <v>55</v>
       </c>
-      <c r="H238" s="177" t="s">
+      <c r="H238" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="I238" s="178">
+      <c r="I238" s="138">
         <f>PERCENTILE(A231:A340,0.9)</f>
         <v>510.50000000000006</v>
       </c>
@@ -17941,82 +18309,229 @@
         <v>65</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="54">
         <v>70</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="54">
         <v>75</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="54">
         <v>80</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D243" s="198" t="s">
+        <v>240</v>
+      </c>
+      <c r="E243" s="198"/>
+      <c r="F243" s="198"/>
+      <c r="G243" s="198"/>
+      <c r="H243" s="198"/>
+      <c r="I243" s="198"/>
+      <c r="J243" s="198"/>
+      <c r="K243" s="198"/>
+      <c r="L243" s="198"/>
+      <c r="M243" s="198"/>
+      <c r="N243" s="198"/>
+      <c r="O243" s="198"/>
+      <c r="P243" s="198"/>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="54">
         <v>85</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D244" s="198"/>
+      <c r="E244" s="198"/>
+      <c r="F244" s="198"/>
+      <c r="G244" s="198"/>
+      <c r="H244" s="198"/>
+      <c r="I244" s="198"/>
+      <c r="J244" s="198"/>
+      <c r="K244" s="198"/>
+      <c r="L244" s="198"/>
+      <c r="M244" s="198"/>
+      <c r="N244" s="198"/>
+      <c r="O244" s="198"/>
+      <c r="P244" s="198"/>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="54">
         <v>90</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D245" s="198"/>
+      <c r="E245" s="198"/>
+      <c r="F245" s="198"/>
+      <c r="G245" s="198"/>
+      <c r="H245" s="198"/>
+      <c r="I245" s="198"/>
+      <c r="J245" s="198"/>
+      <c r="K245" s="198"/>
+      <c r="L245" s="198"/>
+      <c r="M245" s="198"/>
+      <c r="N245" s="198"/>
+      <c r="O245" s="198"/>
+      <c r="P245" s="198"/>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="54">
         <v>95</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D246" s="198"/>
+      <c r="E246" s="198"/>
+      <c r="F246" s="198"/>
+      <c r="G246" s="198"/>
+      <c r="H246" s="198"/>
+      <c r="I246" s="198"/>
+      <c r="J246" s="198"/>
+      <c r="K246" s="198"/>
+      <c r="L246" s="198"/>
+      <c r="M246" s="198"/>
+      <c r="N246" s="198"/>
+      <c r="O246" s="198"/>
+      <c r="P246" s="198"/>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="54">
         <v>100</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D247" s="101"/>
+      <c r="E247" s="101"/>
+      <c r="F247" s="101"/>
+      <c r="G247" s="101"/>
+      <c r="H247" s="101"/>
+      <c r="I247" s="101"/>
+      <c r="J247" s="101"/>
+      <c r="K247" s="101"/>
+      <c r="L247" s="101"/>
+      <c r="M247" s="101"/>
+      <c r="N247" s="101"/>
+      <c r="O247" s="101"/>
+      <c r="P247" s="101"/>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="54">
         <v>105</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D248" s="101"/>
+      <c r="E248" s="101"/>
+      <c r="F248" s="101"/>
+      <c r="G248" s="101"/>
+      <c r="H248" s="101"/>
+      <c r="I248" s="101"/>
+      <c r="J248" s="101"/>
+      <c r="K248" s="101"/>
+      <c r="L248" s="101"/>
+      <c r="M248" s="101"/>
+      <c r="N248" s="101"/>
+      <c r="O248" s="101"/>
+      <c r="P248" s="101"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="54">
         <v>110</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D249" s="199" t="s">
+        <v>241</v>
+      </c>
+      <c r="E249" s="199"/>
+      <c r="F249" s="199"/>
+      <c r="G249" s="199"/>
+      <c r="H249" s="199"/>
+      <c r="I249" s="199"/>
+      <c r="J249" s="199"/>
+      <c r="K249" s="199"/>
+      <c r="L249" s="199"/>
+      <c r="M249" s="199"/>
+      <c r="N249" s="199"/>
+      <c r="O249" s="199"/>
+      <c r="P249" s="199"/>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="54">
         <v>115</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D250" s="199"/>
+      <c r="E250" s="199"/>
+      <c r="F250" s="199"/>
+      <c r="G250" s="199"/>
+      <c r="H250" s="199"/>
+      <c r="I250" s="199"/>
+      <c r="J250" s="199"/>
+      <c r="K250" s="199"/>
+      <c r="L250" s="199"/>
+      <c r="M250" s="199"/>
+      <c r="N250" s="199"/>
+      <c r="O250" s="199"/>
+      <c r="P250" s="199"/>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="54">
         <v>120</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D251" s="199"/>
+      <c r="E251" s="199"/>
+      <c r="F251" s="199"/>
+      <c r="G251" s="199"/>
+      <c r="H251" s="199"/>
+      <c r="I251" s="199"/>
+      <c r="J251" s="199"/>
+      <c r="K251" s="199"/>
+      <c r="L251" s="199"/>
+      <c r="M251" s="199"/>
+      <c r="N251" s="199"/>
+      <c r="O251" s="199"/>
+      <c r="P251" s="199"/>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="54">
         <v>125</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D252" s="199"/>
+      <c r="E252" s="199"/>
+      <c r="F252" s="199"/>
+      <c r="G252" s="199"/>
+      <c r="H252" s="199"/>
+      <c r="I252" s="199"/>
+      <c r="J252" s="199"/>
+      <c r="K252" s="199"/>
+      <c r="L252" s="199"/>
+      <c r="M252" s="199"/>
+      <c r="N252" s="199"/>
+      <c r="O252" s="199"/>
+      <c r="P252" s="199"/>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="54">
         <v>130</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D253" s="199"/>
+      <c r="E253" s="199"/>
+      <c r="F253" s="199"/>
+      <c r="G253" s="199"/>
+      <c r="H253" s="199"/>
+      <c r="I253" s="199"/>
+      <c r="J253" s="199"/>
+      <c r="K253" s="199"/>
+      <c r="L253" s="199"/>
+      <c r="M253" s="199"/>
+      <c r="N253" s="199"/>
+      <c r="O253" s="199"/>
+      <c r="P253" s="199"/>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="54">
         <v>135</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="54">
         <v>140</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="54">
         <v>145</v>
       </c>
@@ -18442,7 +18957,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="D243:P246"/>
+    <mergeCell ref="D249:P253"/>
     <mergeCell ref="A226:S227"/>
     <mergeCell ref="A229:A230"/>
     <mergeCell ref="D230:E231"/>
@@ -18453,6 +18970,10 @@
     <mergeCell ref="A116:Q117"/>
     <mergeCell ref="D121:E122"/>
     <mergeCell ref="H121:I122"/>
+    <mergeCell ref="D24:N27"/>
+    <mergeCell ref="D30:N33"/>
+    <mergeCell ref="D134:N137"/>
+    <mergeCell ref="D139:N142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18462,7 +18983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB31639-52D9-4633-AECE-780E8C52ACA7}">
   <dimension ref="A2:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -18476,72 +18997,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="193" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="193"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="183"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="183"/>
-      <c r="S4" s="183"/>
-      <c r="T4" s="183"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193"/>
+      <c r="T4" s="193"/>
     </row>
     <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="108" t="s">
@@ -18549,21 +19070,21 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="194" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="195" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="184"/>
-      <c r="B11" s="185"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="196" t="s">
+      <c r="A11" s="194"/>
+      <c r="B11" s="195"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="G11" s="197" t="s">
+      <c r="G11" s="147" t="s">
         <v>229</v>
       </c>
     </row>
@@ -18574,13 +19095,13 @@
       <c r="B12" s="14">
         <v>50</v>
       </c>
-      <c r="E12" s="198" t="s">
+      <c r="E12" s="135" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="194">
+      <c r="F12" s="56">
         <v>1</v>
       </c>
-      <c r="G12" s="199"/>
+      <c r="G12" s="136"/>
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
@@ -18589,13 +19110,13 @@
       <c r="B13" s="14">
         <v>55</v>
       </c>
-      <c r="E13" s="200" t="s">
+      <c r="E13" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="F13" s="201">
+      <c r="F13" s="148">
         <v>0.99921031003664817</v>
       </c>
-      <c r="G13" s="202">
+      <c r="G13" s="138">
         <v>1</v>
       </c>
     </row>
@@ -18677,15 +19198,15 @@
       <c r="B20" s="14">
         <v>90</v>
       </c>
-      <c r="E20" s="193" t="s">
+      <c r="E20" s="196" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
@@ -18694,13 +19215,13 @@
       <c r="B21" s="14">
         <v>95</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
@@ -18719,51 +19240,51 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="130"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="190" t="s">
+      <c r="A33" s="143" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="191" t="s">
+      <c r="B33" s="144" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="186">
+      <c r="A34" s="139">
         <v>45</v>
       </c>
-      <c r="B34" s="187">
+      <c r="B34" s="140">
         <v>52</v>
       </c>
       <c r="E34" s="81"/>
@@ -18775,66 +19296,66 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="186">
+      <c r="A35" s="139">
         <v>47</v>
       </c>
-      <c r="B35" s="187">
+      <c r="B35" s="140">
         <v>54</v>
       </c>
-      <c r="E35" s="194" t="s">
+      <c r="E35" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="F35" s="194">
+      <c r="F35" s="56">
         <v>1</v>
       </c>
-      <c r="G35" s="194"/>
+      <c r="G35" s="56"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="186">
+      <c r="A36" s="139">
         <v>48</v>
       </c>
-      <c r="B36" s="187">
+      <c r="B36" s="140">
         <v>55</v>
       </c>
-      <c r="E36" s="194" t="s">
+      <c r="E36" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="194">
+      <c r="F36" s="56">
         <v>0.99859572699637911</v>
       </c>
-      <c r="G36" s="194">
+      <c r="G36" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="186">
+      <c r="A37" s="139">
         <v>50</v>
       </c>
-      <c r="B37" s="187">
+      <c r="B37" s="140">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="186">
+      <c r="A38" s="139">
         <v>52</v>
       </c>
-      <c r="B38" s="187">
+      <c r="B38" s="140">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="186">
+      <c r="A39" s="139">
         <v>53</v>
       </c>
-      <c r="B39" s="187">
+      <c r="B39" s="140">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="186">
+      <c r="A40" s="139">
         <v>55</v>
       </c>
-      <c r="B40" s="187">
+      <c r="B40" s="140">
         <v>61</v>
       </c>
       <c r="E40" s="192" t="s">
@@ -18850,10 +19371,10 @@
       <c r="M40" s="192"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="186">
+      <c r="A41" s="139">
         <v>56</v>
       </c>
-      <c r="B41" s="187">
+      <c r="B41" s="140">
         <v>62</v>
       </c>
       <c r="E41" s="192"/>
@@ -18867,10 +19388,10 @@
       <c r="M41" s="192"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="186">
+      <c r="A42" s="139">
         <v>58</v>
       </c>
-      <c r="B42" s="187">
+      <c r="B42" s="140">
         <v>64</v>
       </c>
       <c r="E42" s="192"/>
@@ -18884,90 +19405,90 @@
       <c r="M42" s="192"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="186">
+      <c r="A43" s="139">
         <v>60</v>
       </c>
-      <c r="B43" s="187">
+      <c r="B43" s="140">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="186">
+      <c r="A44" s="139">
         <v>62</v>
       </c>
-      <c r="B44" s="187">
+      <c r="B44" s="140">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="186">
+      <c r="A45" s="139">
         <v>64</v>
       </c>
-      <c r="B45" s="187">
+      <c r="B45" s="140">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="186">
+      <c r="A46" s="139">
         <v>65</v>
       </c>
-      <c r="B46" s="187">
+      <c r="B46" s="140">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="186">
+      <c r="A47" s="139">
         <v>67</v>
       </c>
-      <c r="B47" s="187">
+      <c r="B47" s="140">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="186">
+      <c r="A48" s="139">
         <v>69</v>
       </c>
-      <c r="B48" s="187">
+      <c r="B48" s="140">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="186">
+      <c r="A49" s="139">
         <v>70</v>
       </c>
-      <c r="B49" s="187">
+      <c r="B49" s="140">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="186">
+      <c r="A50" s="139">
         <v>72</v>
       </c>
-      <c r="B50" s="187">
+      <c r="B50" s="140">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="186">
+      <c r="A51" s="139">
         <v>74</v>
       </c>
-      <c r="B51" s="187">
+      <c r="B51" s="140">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="186">
+      <c r="A52" s="139">
         <v>76</v>
       </c>
-      <c r="B52" s="187">
+      <c r="B52" s="140">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="188">
+      <c r="A53" s="141">
         <v>77</v>
       </c>
-      <c r="B53" s="189">
+      <c r="B53" s="142">
         <v>83</v>
       </c>
     </row>
